--- a/artfynd/A 2768-2023.xlsx
+++ b/artfynd/A 2768-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:AY28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1020,6 +1020,2718 @@
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>112129414</v>
+      </c>
+      <c r="B5" t="n">
+        <v>90710</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>5449</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Svart taggsvamp</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Phellodon niger</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Godmyr (Godmyr), Ly lm</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>690450.7896457023</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7126168.380884241</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Örträsk</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>15:34</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>15:34</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>112126647</v>
+      </c>
+      <c r="B6" t="n">
+        <v>90300</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>4745</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Tallriska</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Lactarius musteus</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Fr.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>690577.7003768065</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7125678.054869527</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Örträsk</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>13:45</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>13:45</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>112129144</v>
+      </c>
+      <c r="B7" t="n">
+        <v>56414</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Godmyr (Godmyr), Ly lm</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>690342.1085043151</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7126286.088782215</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Örträsk</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>15:23</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>15:23</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>112125806</v>
+      </c>
+      <c r="B8" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>690607.0150986378</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7125748.418896579</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Örträsk</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>13:16</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>13:16</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>112129324</v>
+      </c>
+      <c r="B9" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Godmyr (Godmyr), Ly lm</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>690443.61286689</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7126178.415219921</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Örträsk</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>15:32</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>15:32</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>112129532</v>
+      </c>
+      <c r="B10" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Godmyr (Godmyr), Ly lm</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>690474.4984357493</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7126173.774752238</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Örträsk</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>15:41</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>15:41</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>112129248</v>
+      </c>
+      <c r="B11" t="n">
+        <v>90710</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>5449</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Svart taggsvamp</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Phellodon niger</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Godmyr (Godmyr), Ly lm</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>690368.2987376999</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7126265.441720054</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Örträsk</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>15:28</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>15:28</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>112129344</v>
+      </c>
+      <c r="B12" t="n">
+        <v>90682</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2059</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Skrovlig taggsvamp</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Hydnellum scabrosum</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Godmyr (Godmyr), Ly lm</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>690447.6607835806</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7126169.497308871</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Örträsk</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>15:33</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>15:33</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>112128981</v>
+      </c>
+      <c r="B13" t="n">
+        <v>78578</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Godmyr (Godmyr), Ly lm</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>690353.6739480412</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7126318.234514099</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Örträsk</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>15:13</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>15:13</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>112126910</v>
+      </c>
+      <c r="B14" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>690565.1288052741</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7125648.02276709</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Örträsk</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>13:54</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>13:54</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>112128707</v>
+      </c>
+      <c r="B15" t="n">
+        <v>78578</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Godmyr (Godmyr), Ly lm</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>690357.780929693</v>
+      </c>
+      <c r="R15" t="n">
+        <v>7126315.432278593</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Örträsk</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>15:06</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>15:06</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>112125962</v>
+      </c>
+      <c r="B16" t="n">
+        <v>90710</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>5449</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Svart taggsvamp</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Phellodon niger</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>690606.1334164523</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7125734.392117385</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Örträsk</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>13:22</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>13:22</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>112126418</v>
+      </c>
+      <c r="B17" t="n">
+        <v>90710</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>5449</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Svart taggsvamp</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Phellodon niger</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>690580.1576844405</v>
+      </c>
+      <c r="R17" t="n">
+        <v>7125723.180545537</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Örträsk</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>13:32</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>13:32</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>112129437</v>
+      </c>
+      <c r="B18" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Godmyr (Godmyr), Ly lm</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>690460.2198226614</v>
+      </c>
+      <c r="R18" t="n">
+        <v>7126185.553111894</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Örträsk</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>15:36</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>15:36</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>112127443</v>
+      </c>
+      <c r="B19" t="n">
+        <v>90709</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>5448</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Svartvit taggsvamp</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Phellodon connatus</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>690559.0360190449</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7125583.895290419</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Örträsk</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>14:21</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>14:21</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>112126880</v>
+      </c>
+      <c r="B20" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>690575.8667917674</v>
+      </c>
+      <c r="R20" t="n">
+        <v>7125665.278902949</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Örträsk</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>13:53</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>13:53</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>112129442</v>
+      </c>
+      <c r="B21" t="n">
+        <v>90710</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>5449</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Svart taggsvamp</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Phellodon niger</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Godmyr (Godmyr), Ly lm</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>690472.3748497693</v>
+      </c>
+      <c r="R21" t="n">
+        <v>7126172.770408084</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Örträsk</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>15:36</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>15:36</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>112126260</v>
+      </c>
+      <c r="B22" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>690607.2411511086</v>
+      </c>
+      <c r="R22" t="n">
+        <v>7125723.544707977</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Örträsk</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>13:28</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>13:28</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>112127162</v>
+      </c>
+      <c r="B23" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>690562.3594275013</v>
+      </c>
+      <c r="R23" t="n">
+        <v>7125622.089405788</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Örträsk</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>14:06</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>14:06</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>112127054</v>
+      </c>
+      <c r="B24" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>690546.1532106042</v>
+      </c>
+      <c r="R24" t="n">
+        <v>7125643.793604916</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Örträsk</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>112128845</v>
+      </c>
+      <c r="B25" t="n">
+        <v>78578</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Godmyr (Godmyr), Ly lm</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>690356.9848239205</v>
+      </c>
+      <c r="R25" t="n">
+        <v>7126307.088687462</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Örträsk</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>15:10</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>15:10</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>112128915</v>
+      </c>
+      <c r="B26" t="n">
+        <v>78612</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>6464</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Luddlav</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Nephroma resupinatum</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(L.) Ach.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Godmyr (Godmyr), Ly lm</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>690355.845390888</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7126311.383821715</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Örträsk</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>15:13</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>15:13</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>112125914</v>
+      </c>
+      <c r="B27" t="n">
+        <v>90710</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>5449</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Svart taggsvamp</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Phellodon niger</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>690606.8215675937</v>
+      </c>
+      <c r="R27" t="n">
+        <v>7125744.477236573</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Örträsk</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>13:20</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>13:20</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>112126507</v>
+      </c>
+      <c r="B28" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>690563.2956218154</v>
+      </c>
+      <c r="R28" t="n">
+        <v>7125705.982840442</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Örträsk</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>13:38</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>13:38</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 2768-2023.xlsx
+++ b/artfynd/A 2768-2023.xlsx
@@ -1361,10 +1361,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112125806</v>
+        <v>112129324</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>90666</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1373,42 +1373,42 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>690607.0150986378</v>
+        <v>690443.61286689</v>
       </c>
       <c r="R8" t="n">
-        <v>7125748.418896579</v>
+        <v>7126178.415219921</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>15:32</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>15:32</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1474,10 +1474,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112129324</v>
+        <v>112125806</v>
       </c>
       <c r="B9" t="n">
-        <v>90666</v>
+        <v>77515</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1486,42 +1486,42 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>690443.61286689</v>
+        <v>690607.0150986378</v>
       </c>
       <c r="R9" t="n">
-        <v>7126178.415219921</v>
+        <v>7125748.418896579</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>15:32</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>15:32</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AD9" t="b">

--- a/artfynd/A 2768-2023.xlsx
+++ b/artfynd/A 2768-2023.xlsx
@@ -1022,10 +1022,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112129414</v>
+        <v>112127443</v>
       </c>
       <c r="B5" t="n">
-        <v>90710</v>
+        <v>90709</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1038,35 +1038,35 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5449</v>
+        <v>5448</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>690450.7896457023</v>
+        <v>690559.0360190449</v>
       </c>
       <c r="R5" t="n">
-        <v>7126168.380884241</v>
+        <v>7125583.895290419</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1135,10 +1135,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112126647</v>
+        <v>112129324</v>
       </c>
       <c r="B6" t="n">
-        <v>90300</v>
+        <v>90666</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1147,39 +1147,39 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4745</v>
+        <v>4364</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>690577.7003768065</v>
+        <v>690443.61286689</v>
       </c>
       <c r="R6" t="n">
-        <v>7125678.054869527</v>
+        <v>7126178.415219921</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>15:32</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>15:32</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1248,10 +1248,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112129144</v>
+        <v>112129442</v>
       </c>
       <c r="B7" t="n">
-        <v>56414</v>
+        <v>90710</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1264,21 +1264,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>5449</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>690342.1085043151</v>
+        <v>690472.3748497693</v>
       </c>
       <c r="R7" t="n">
-        <v>7126286.088782215</v>
+        <v>7126172.770408084</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>15:23</t>
+          <t>15:36</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>15:23</t>
+          <t>15:36</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1361,10 +1361,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112129324</v>
+        <v>112126260</v>
       </c>
       <c r="B8" t="n">
-        <v>90666</v>
+        <v>77515</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1373,39 +1373,39 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>690443.61286689</v>
+        <v>690607.2411511086</v>
       </c>
       <c r="R8" t="n">
-        <v>7126178.415219921</v>
+        <v>7125723.544707977</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>15:32</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>15:32</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1474,10 +1474,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112125806</v>
+        <v>112127162</v>
       </c>
       <c r="B9" t="n">
-        <v>77515</v>
+        <v>90666</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1486,25 +1486,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1515,13 +1515,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>690607.0150986378</v>
+        <v>690562.3594275013</v>
       </c>
       <c r="R9" t="n">
-        <v>7125748.418896579</v>
+        <v>7125622.089405788</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>14:06</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>14:06</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1587,7 +1587,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112129532</v>
+        <v>112127054</v>
       </c>
       <c r="B10" t="n">
         <v>90666</v>
@@ -1624,14 +1624,14 @@
       <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>690474.4984357493</v>
+        <v>690546.1532106042</v>
       </c>
       <c r="R10" t="n">
-        <v>7126173.774752238</v>
+        <v>7125643.793604916</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1700,7 +1700,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112129248</v>
+        <v>112129414</v>
       </c>
       <c r="B11" t="n">
         <v>90710</v>
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>690368.2987376999</v>
+        <v>690450.7896457023</v>
       </c>
       <c r="R11" t="n">
-        <v>7126265.441720054</v>
+        <v>7126168.380884241</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>15:28</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>15:28</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1813,10 +1813,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112129344</v>
+        <v>112125806</v>
       </c>
       <c r="B12" t="n">
-        <v>90682</v>
+        <v>77515</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1829,38 +1829,38 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2059</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>690447.6607835806</v>
+        <v>690607.0150986378</v>
       </c>
       <c r="R12" t="n">
-        <v>7126169.497308871</v>
+        <v>7125748.418896579</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>15:33</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>15:33</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1926,10 +1926,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112128981</v>
+        <v>112128915</v>
       </c>
       <c r="B13" t="n">
-        <v>78578</v>
+        <v>78612</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1938,25 +1938,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6458</v>
+        <v>6464</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1967,10 +1967,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>690353.6739480412</v>
+        <v>690355.845390888</v>
       </c>
       <c r="R13" t="n">
-        <v>7126318.234514099</v>
+        <v>7126311.383821715</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -2039,10 +2039,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112126910</v>
+        <v>112129344</v>
       </c>
       <c r="B14" t="n">
-        <v>90666</v>
+        <v>90682</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2051,39 +2051,39 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>690565.1288052741</v>
+        <v>690447.6607835806</v>
       </c>
       <c r="R14" t="n">
-        <v>7125648.02276709</v>
+        <v>7126169.497308871</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>15:33</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>15:33</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2152,10 +2152,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112128707</v>
+        <v>112126880</v>
       </c>
       <c r="B15" t="n">
-        <v>78578</v>
+        <v>90666</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2164,39 +2164,39 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6458</v>
+        <v>4364</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>690357.780929693</v>
+        <v>690575.8667917674</v>
       </c>
       <c r="R15" t="n">
-        <v>7126315.432278593</v>
+        <v>7125665.278902949</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2265,7 +2265,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112125962</v>
+        <v>112125914</v>
       </c>
       <c r="B16" t="n">
         <v>90710</v>
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>690606.1334164523</v>
+        <v>690606.8215675937</v>
       </c>
       <c r="R16" t="n">
-        <v>7125734.392117385</v>
+        <v>7125744.477236573</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2378,10 +2378,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112126418</v>
+        <v>112126507</v>
       </c>
       <c r="B17" t="n">
-        <v>90710</v>
+        <v>90666</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2390,25 +2390,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5449</v>
+        <v>4364</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2419,10 +2419,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>690580.1576844405</v>
+        <v>690563.2956218154</v>
       </c>
       <c r="R17" t="n">
-        <v>7125723.180545537</v>
+        <v>7125705.982840442</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>13:38</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>13:38</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2491,10 +2491,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112129437</v>
+        <v>112129532</v>
       </c>
       <c r="B18" t="n">
-        <v>90658</v>
+        <v>90666</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2503,25 +2503,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2532,10 +2532,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>690460.2198226614</v>
+        <v>690474.4984357493</v>
       </c>
       <c r="R18" t="n">
-        <v>7126185.553111894</v>
+        <v>7126173.774752238</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>15:36</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>15:36</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2604,10 +2604,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112127443</v>
+        <v>112129144</v>
       </c>
       <c r="B19" t="n">
-        <v>90709</v>
+        <v>56414</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2620,35 +2620,35 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5448</v>
+        <v>100049</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>690559.0360190449</v>
+        <v>690342.1085043151</v>
       </c>
       <c r="R19" t="n">
-        <v>7125583.895290419</v>
+        <v>7126286.088782215</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>15:23</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>15:23</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2717,10 +2717,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112126880</v>
+        <v>112129437</v>
       </c>
       <c r="B20" t="n">
-        <v>90666</v>
+        <v>90658</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2729,39 +2729,39 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>690575.8667917674</v>
+        <v>690460.2198226614</v>
       </c>
       <c r="R20" t="n">
-        <v>7125665.278902949</v>
+        <v>7126185.553111894</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>15:36</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>15:36</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2830,7 +2830,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112129442</v>
+        <v>112126418</v>
       </c>
       <c r="B21" t="n">
         <v>90710</v>
@@ -2867,14 +2867,14 @@
       <c r="K21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>690472.3748497693</v>
+        <v>690580.1576844405</v>
       </c>
       <c r="R21" t="n">
-        <v>7126172.770408084</v>
+        <v>7125723.180545537</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>15:36</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>15:36</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2943,10 +2943,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112126260</v>
+        <v>112125962</v>
       </c>
       <c r="B22" t="n">
-        <v>77515</v>
+        <v>90710</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2959,21 +2959,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>5449</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2984,10 +2984,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>690607.2411511086</v>
+        <v>690606.1334164523</v>
       </c>
       <c r="R22" t="n">
-        <v>7125723.544707977</v>
+        <v>7125734.392117385</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3056,7 +3056,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112127162</v>
+        <v>112126910</v>
       </c>
       <c r="B23" t="n">
         <v>90666</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>690562.3594275013</v>
+        <v>690565.1288052741</v>
       </c>
       <c r="R23" t="n">
-        <v>7125622.089405788</v>
+        <v>7125648.02276709</v>
       </c>
       <c r="S23" t="n">
         <v>1</v>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>14:06</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>14:06</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3169,10 +3169,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112127054</v>
+        <v>112129248</v>
       </c>
       <c r="B24" t="n">
-        <v>90666</v>
+        <v>90710</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3181,39 +3181,39 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4364</v>
+        <v>5449</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>690546.1532106042</v>
+        <v>690368.2987376999</v>
       </c>
       <c r="R24" t="n">
-        <v>7125643.793604916</v>
+        <v>7126265.441720054</v>
       </c>
       <c r="S24" t="n">
         <v>1</v>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:28</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:28</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3282,7 +3282,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112128845</v>
+        <v>112128981</v>
       </c>
       <c r="B25" t="n">
         <v>78578</v>
@@ -3323,10 +3323,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>690356.9848239205</v>
+        <v>690353.6739480412</v>
       </c>
       <c r="R25" t="n">
-        <v>7126307.088687462</v>
+        <v>7126318.234514099</v>
       </c>
       <c r="S25" t="n">
         <v>1</v>
@@ -3358,7 +3358,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>15:10</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>15:10</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3395,10 +3395,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112128915</v>
+        <v>112128707</v>
       </c>
       <c r="B26" t="n">
-        <v>78612</v>
+        <v>78578</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3407,25 +3407,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3436,10 +3436,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>690355.845390888</v>
+        <v>690357.780929693</v>
       </c>
       <c r="R26" t="n">
-        <v>7126311.383821715</v>
+        <v>7126315.432278593</v>
       </c>
       <c r="S26" t="n">
         <v>1</v>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3508,10 +3508,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112125914</v>
+        <v>112126647</v>
       </c>
       <c r="B27" t="n">
-        <v>90710</v>
+        <v>90300</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3524,21 +3524,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5449</v>
+        <v>4745</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3549,10 +3549,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>690606.8215675937</v>
+        <v>690577.7003768065</v>
       </c>
       <c r="R27" t="n">
-        <v>7125744.477236573</v>
+        <v>7125678.054869527</v>
       </c>
       <c r="S27" t="n">
         <v>1</v>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3621,10 +3621,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112126507</v>
+        <v>112128845</v>
       </c>
       <c r="B28" t="n">
-        <v>90666</v>
+        <v>78578</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3633,39 +3633,39 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4364</v>
+        <v>6458</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>690563.2956218154</v>
+        <v>690356.9848239205</v>
       </c>
       <c r="R28" t="n">
-        <v>7125705.982840442</v>
+        <v>7126307.088687462</v>
       </c>
       <c r="S28" t="n">
         <v>1</v>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>13:38</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3707,7 +3707,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>13:38</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="AD28" t="b">

--- a/artfynd/A 2768-2023.xlsx
+++ b/artfynd/A 2768-2023.xlsx
@@ -1135,10 +1135,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112129324</v>
+        <v>112126260</v>
       </c>
       <c r="B6" t="n">
-        <v>90666</v>
+        <v>77515</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1147,39 +1147,39 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>690443.61286689</v>
+        <v>690607.2411511086</v>
       </c>
       <c r="R6" t="n">
-        <v>7126178.415219921</v>
+        <v>7125723.544707977</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>15:32</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>15:32</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1248,10 +1248,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112129442</v>
+        <v>112129324</v>
       </c>
       <c r="B7" t="n">
-        <v>90710</v>
+        <v>90666</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1260,25 +1260,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5449</v>
+        <v>4364</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>690472.3748497693</v>
+        <v>690443.61286689</v>
       </c>
       <c r="R7" t="n">
-        <v>7126172.770408084</v>
+        <v>7126178.415219921</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>15:36</t>
+          <t>15:32</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>15:36</t>
+          <t>15:32</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1361,10 +1361,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112126260</v>
+        <v>112129442</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>90710</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1377,35 +1377,35 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>5449</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>690607.2411511086</v>
+        <v>690472.3748497693</v>
       </c>
       <c r="R8" t="n">
-        <v>7125723.544707977</v>
+        <v>7126172.770408084</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>15:36</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>15:36</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -2943,10 +2943,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112125962</v>
+        <v>112128981</v>
       </c>
       <c r="B22" t="n">
-        <v>90710</v>
+        <v>78578</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2959,35 +2959,35 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5449</v>
+        <v>6458</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>690606.1334164523</v>
+        <v>690353.6739480412</v>
       </c>
       <c r="R22" t="n">
-        <v>7125734.392117385</v>
+        <v>7126318.234514099</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3056,10 +3056,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112126910</v>
+        <v>112125962</v>
       </c>
       <c r="B23" t="n">
-        <v>90666</v>
+        <v>90710</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3068,25 +3068,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4364</v>
+        <v>5449</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>690565.1288052741</v>
+        <v>690606.1334164523</v>
       </c>
       <c r="R23" t="n">
-        <v>7125648.02276709</v>
+        <v>7125734.392117385</v>
       </c>
       <c r="S23" t="n">
         <v>1</v>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3169,10 +3169,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112129248</v>
+        <v>112126910</v>
       </c>
       <c r="B24" t="n">
-        <v>90710</v>
+        <v>90666</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3181,39 +3181,39 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5449</v>
+        <v>4364</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>690368.2987376999</v>
+        <v>690565.1288052741</v>
       </c>
       <c r="R24" t="n">
-        <v>7126265.441720054</v>
+        <v>7125648.02276709</v>
       </c>
       <c r="S24" t="n">
         <v>1</v>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>15:28</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>15:28</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3282,10 +3282,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112128981</v>
+        <v>112129248</v>
       </c>
       <c r="B25" t="n">
-        <v>78578</v>
+        <v>90710</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3298,21 +3298,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6458</v>
+        <v>5449</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3323,10 +3323,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>690353.6739480412</v>
+        <v>690368.2987376999</v>
       </c>
       <c r="R25" t="n">
-        <v>7126318.234514099</v>
+        <v>7126265.441720054</v>
       </c>
       <c r="S25" t="n">
         <v>1</v>
@@ -3358,7 +3358,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>15:28</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>15:28</t>
         </is>
       </c>
       <c r="AD25" t="b">

--- a/artfynd/A 2768-2023.xlsx
+++ b/artfynd/A 2768-2023.xlsx
@@ -1022,10 +1022,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112127443</v>
+        <v>112126418</v>
       </c>
       <c r="B5" t="n">
-        <v>90709</v>
+        <v>90710</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1038,21 +1038,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5448</v>
+        <v>5449</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1063,10 +1063,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>690559.0360190449</v>
+        <v>690580</v>
       </c>
       <c r="R5" t="n">
-        <v>7125583.895290419</v>
+        <v>7125723</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1135,7 +1135,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112126260</v>
+        <v>112125806</v>
       </c>
       <c r="B6" t="n">
         <v>77515</v>
@@ -1176,13 +1176,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>690607.2411511086</v>
+        <v>690607</v>
       </c>
       <c r="R6" t="n">
-        <v>7125723.544707977</v>
+        <v>7125748</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1248,10 +1248,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112129324</v>
+        <v>112128915</v>
       </c>
       <c r="B7" t="n">
-        <v>90666</v>
+        <v>78612</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1264,21 +1264,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4364</v>
+        <v>6464</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>690443.61286689</v>
+        <v>690356</v>
       </c>
       <c r="R7" t="n">
-        <v>7126178.415219921</v>
+        <v>7126311</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>15:32</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>15:32</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1361,7 +1361,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112129442</v>
+        <v>112129248</v>
       </c>
       <c r="B8" t="n">
         <v>90710</v>
@@ -1402,10 +1402,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>690472.3748497693</v>
+        <v>690368</v>
       </c>
       <c r="R8" t="n">
-        <v>7126172.770408084</v>
+        <v>7126265</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>15:36</t>
+          <t>15:28</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>15:36</t>
+          <t>15:28</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1474,10 +1474,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112127162</v>
+        <v>112128981</v>
       </c>
       <c r="B9" t="n">
-        <v>90666</v>
+        <v>78578</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1486,39 +1486,39 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4364</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>690562.3594275013</v>
+        <v>690354</v>
       </c>
       <c r="R9" t="n">
-        <v>7125622.089405788</v>
+        <v>7126318</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>14:06</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>14:06</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1587,7 +1587,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112127054</v>
+        <v>112126507</v>
       </c>
       <c r="B10" t="n">
         <v>90666</v>
@@ -1628,10 +1628,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>690546.1532106042</v>
+        <v>690563</v>
       </c>
       <c r="R10" t="n">
-        <v>7125643.793604916</v>
+        <v>7125706</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:38</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:38</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1700,10 +1700,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112129414</v>
+        <v>112126260</v>
       </c>
       <c r="B11" t="n">
-        <v>90710</v>
+        <v>77515</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1716,35 +1716,35 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5449</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>690450.7896457023</v>
+        <v>690607</v>
       </c>
       <c r="R11" t="n">
-        <v>7126168.380884241</v>
+        <v>7125724</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1813,10 +1813,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112125806</v>
+        <v>112125914</v>
       </c>
       <c r="B12" t="n">
-        <v>77515</v>
+        <v>90710</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1829,21 +1829,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>5449</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1854,13 +1854,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>690607.0150986378</v>
+        <v>690607</v>
       </c>
       <c r="R12" t="n">
-        <v>7125748.418896579</v>
+        <v>7125744</v>
       </c>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1926,10 +1926,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112128915</v>
+        <v>112127443</v>
       </c>
       <c r="B13" t="n">
-        <v>78612</v>
+        <v>90709</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1938,39 +1938,39 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6464</v>
+        <v>5448</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>690355.845390888</v>
+        <v>690559</v>
       </c>
       <c r="R13" t="n">
-        <v>7126311.383821715</v>
+        <v>7125584</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2039,10 +2039,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112129344</v>
+        <v>112127054</v>
       </c>
       <c r="B14" t="n">
-        <v>90682</v>
+        <v>90666</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2051,39 +2051,39 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>690447.6607835806</v>
+        <v>690546</v>
       </c>
       <c r="R14" t="n">
-        <v>7126169.497308871</v>
+        <v>7125644</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>15:33</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>15:33</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2152,10 +2152,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112126880</v>
+        <v>112128707</v>
       </c>
       <c r="B15" t="n">
-        <v>90666</v>
+        <v>78578</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2164,39 +2164,39 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4364</v>
+        <v>6458</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>690575.8667917674</v>
+        <v>690358</v>
       </c>
       <c r="R15" t="n">
-        <v>7125665.278902949</v>
+        <v>7126315</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2265,10 +2265,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112125914</v>
+        <v>112127162</v>
       </c>
       <c r="B16" t="n">
-        <v>90710</v>
+        <v>90666</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2277,25 +2277,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5449</v>
+        <v>4364</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>690606.8215675937</v>
+        <v>690562</v>
       </c>
       <c r="R16" t="n">
-        <v>7125744.477236573</v>
+        <v>7125622</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>14:06</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>14:06</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2378,10 +2378,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112126507</v>
+        <v>112129144</v>
       </c>
       <c r="B17" t="n">
-        <v>90666</v>
+        <v>56414</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2390,39 +2390,39 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4364</v>
+        <v>100049</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>690563.2956218154</v>
+        <v>690342</v>
       </c>
       <c r="R17" t="n">
-        <v>7125705.982840442</v>
+        <v>7126286</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:38</t>
+          <t>15:23</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:38</t>
+          <t>15:23</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2491,10 +2491,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112129532</v>
+        <v>112126647</v>
       </c>
       <c r="B18" t="n">
-        <v>90666</v>
+        <v>90300</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2503,39 +2503,39 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4364</v>
+        <v>4745</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>690474.4984357493</v>
+        <v>690578</v>
       </c>
       <c r="R18" t="n">
-        <v>7126173.774752238</v>
+        <v>7125678</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2604,10 +2604,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112129144</v>
+        <v>112125962</v>
       </c>
       <c r="B19" t="n">
-        <v>56414</v>
+        <v>90710</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2620,35 +2620,35 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100049</v>
+        <v>5449</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>690342.1085043151</v>
+        <v>690606</v>
       </c>
       <c r="R19" t="n">
-        <v>7126286.088782215</v>
+        <v>7125734</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>15:23</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>15:23</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2717,10 +2717,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112129437</v>
+        <v>112129344</v>
       </c>
       <c r="B20" t="n">
-        <v>90658</v>
+        <v>90682</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2733,21 +2733,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2758,10 +2758,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>690460.2198226614</v>
+        <v>690448</v>
       </c>
       <c r="R20" t="n">
-        <v>7126185.553111894</v>
+        <v>7126169</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>15:36</t>
+          <t>15:33</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>15:36</t>
+          <t>15:33</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2830,10 +2830,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112126418</v>
+        <v>112129437</v>
       </c>
       <c r="B21" t="n">
-        <v>90710</v>
+        <v>90658</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2846,35 +2846,35 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5449</v>
+        <v>4361</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>690580.1576844405</v>
+        <v>690460</v>
       </c>
       <c r="R21" t="n">
-        <v>7125723.180545537</v>
+        <v>7126186</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>15:36</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>15:36</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2943,10 +2943,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112128981</v>
+        <v>112129532</v>
       </c>
       <c r="B22" t="n">
-        <v>78578</v>
+        <v>90666</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2955,25 +2955,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6458</v>
+        <v>4364</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2984,10 +2984,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>690353.6739480412</v>
+        <v>690474</v>
       </c>
       <c r="R22" t="n">
-        <v>7126318.234514099</v>
+        <v>7126174</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3056,7 +3056,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112125962</v>
+        <v>112129414</v>
       </c>
       <c r="B23" t="n">
         <v>90710</v>
@@ -3093,14 +3093,14 @@
       <c r="K23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>690606.1334164523</v>
+        <v>690451</v>
       </c>
       <c r="R23" t="n">
-        <v>7125734.392117385</v>
+        <v>7126168</v>
       </c>
       <c r="S23" t="n">
         <v>1</v>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3169,10 +3169,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112126910</v>
+        <v>112129442</v>
       </c>
       <c r="B24" t="n">
-        <v>90666</v>
+        <v>90710</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3181,39 +3181,39 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4364</v>
+        <v>5449</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>690565.1288052741</v>
+        <v>690472</v>
       </c>
       <c r="R24" t="n">
-        <v>7125648.02276709</v>
+        <v>7126173</v>
       </c>
       <c r="S24" t="n">
         <v>1</v>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>15:36</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>15:36</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3282,10 +3282,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112129248</v>
+        <v>112128845</v>
       </c>
       <c r="B25" t="n">
-        <v>90710</v>
+        <v>78578</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3298,21 +3298,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5449</v>
+        <v>6458</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3323,10 +3323,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>690368.2987376999</v>
+        <v>690357</v>
       </c>
       <c r="R25" t="n">
-        <v>7126265.441720054</v>
+        <v>7126307</v>
       </c>
       <c r="S25" t="n">
         <v>1</v>
@@ -3358,7 +3358,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>15:28</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>15:28</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3395,10 +3395,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112128707</v>
+        <v>112126910</v>
       </c>
       <c r="B26" t="n">
-        <v>78578</v>
+        <v>90666</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3407,39 +3407,39 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6458</v>
+        <v>4364</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>690357.780929693</v>
+        <v>690565</v>
       </c>
       <c r="R26" t="n">
-        <v>7126315.432278593</v>
+        <v>7125648</v>
       </c>
       <c r="S26" t="n">
         <v>1</v>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3508,10 +3508,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112126647</v>
+        <v>112129324</v>
       </c>
       <c r="B27" t="n">
-        <v>90300</v>
+        <v>90666</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3520,39 +3520,39 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4745</v>
+        <v>4364</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>690577.7003768065</v>
+        <v>690444</v>
       </c>
       <c r="R27" t="n">
-        <v>7125678.054869527</v>
+        <v>7126178</v>
       </c>
       <c r="S27" t="n">
         <v>1</v>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>15:32</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>15:32</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3621,10 +3621,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112128845</v>
+        <v>112126880</v>
       </c>
       <c r="B28" t="n">
-        <v>78578</v>
+        <v>90666</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3633,39 +3633,39 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6458</v>
+        <v>4364</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>690356.9848239205</v>
+        <v>690576</v>
       </c>
       <c r="R28" t="n">
-        <v>7126307.088687462</v>
+        <v>7125665</v>
       </c>
       <c r="S28" t="n">
         <v>1</v>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>15:10</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3707,7 +3707,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>15:10</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD28" t="b">

--- a/artfynd/A 2768-2023.xlsx
+++ b/artfynd/A 2768-2023.xlsx
@@ -1022,10 +1022,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112126418</v>
+        <v>112126910</v>
       </c>
       <c r="B5" t="n">
-        <v>90710</v>
+        <v>90800</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1034,25 +1034,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5449</v>
+        <v>4364</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1063,10 +1063,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>690580</v>
+        <v>690565</v>
       </c>
       <c r="R5" t="n">
-        <v>7125723</v>
+        <v>7125648</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1135,10 +1135,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112125806</v>
+        <v>112126647</v>
       </c>
       <c r="B6" t="n">
-        <v>77515</v>
+        <v>90434</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1151,21 +1151,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>4745</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1176,13 +1176,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>690607</v>
+        <v>690578</v>
       </c>
       <c r="R6" t="n">
-        <v>7125748</v>
+        <v>7125678</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1248,10 +1248,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112128915</v>
+        <v>112126260</v>
       </c>
       <c r="B7" t="n">
-        <v>78612</v>
+        <v>77636</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1260,39 +1260,39 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6464</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>690356</v>
+        <v>690607</v>
       </c>
       <c r="R7" t="n">
-        <v>7126311</v>
+        <v>7125724</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1361,10 +1361,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112129248</v>
+        <v>112125962</v>
       </c>
       <c r="B8" t="n">
-        <v>90710</v>
+        <v>90844</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1398,14 +1398,14 @@
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>690368</v>
+        <v>690606</v>
       </c>
       <c r="R8" t="n">
-        <v>7126265</v>
+        <v>7125734</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>15:28</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>15:28</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1474,10 +1474,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112128981</v>
+        <v>112129532</v>
       </c>
       <c r="B9" t="n">
-        <v>78578</v>
+        <v>90800</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1486,25 +1486,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>4364</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1515,10 +1515,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>690354</v>
+        <v>690474</v>
       </c>
       <c r="R9" t="n">
-        <v>7126318</v>
+        <v>7126174</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1587,10 +1587,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112126507</v>
+        <v>112129248</v>
       </c>
       <c r="B10" t="n">
-        <v>90666</v>
+        <v>90844</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1599,39 +1599,39 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4364</v>
+        <v>5449</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>690563</v>
+        <v>690368</v>
       </c>
       <c r="R10" t="n">
-        <v>7125706</v>
+        <v>7126265</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:38</t>
+          <t>15:28</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:38</t>
+          <t>15:28</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1700,10 +1700,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112126260</v>
+        <v>112127054</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>90800</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1712,25 +1712,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>690607</v>
+        <v>690546</v>
       </c>
       <c r="R11" t="n">
-        <v>7125724</v>
+        <v>7125644</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1813,10 +1813,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112125914</v>
+        <v>112128845</v>
       </c>
       <c r="B12" t="n">
-        <v>90710</v>
+        <v>78699</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1829,35 +1829,35 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5449</v>
+        <v>6458</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>690607</v>
+        <v>690357</v>
       </c>
       <c r="R12" t="n">
-        <v>7125744</v>
+        <v>7126307</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1926,10 +1926,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112127443</v>
+        <v>112129144</v>
       </c>
       <c r="B13" t="n">
-        <v>90709</v>
+        <v>56446</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1942,35 +1942,35 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5448</v>
+        <v>100049</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>690559</v>
+        <v>690342</v>
       </c>
       <c r="R13" t="n">
-        <v>7125584</v>
+        <v>7126286</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>15:23</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>15:23</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2039,10 +2039,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112127054</v>
+        <v>112129344</v>
       </c>
       <c r="B14" t="n">
-        <v>90666</v>
+        <v>90816</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2051,39 +2051,39 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>690546</v>
+        <v>690448</v>
       </c>
       <c r="R14" t="n">
-        <v>7125644</v>
+        <v>7126169</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:33</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:33</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2152,10 +2152,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112128707</v>
+        <v>112125806</v>
       </c>
       <c r="B15" t="n">
-        <v>78578</v>
+        <v>77636</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2168,38 +2168,38 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>690358</v>
+        <v>690607</v>
       </c>
       <c r="R15" t="n">
-        <v>7126315</v>
+        <v>7125748</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2265,10 +2265,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112127162</v>
+        <v>112128915</v>
       </c>
       <c r="B16" t="n">
-        <v>90666</v>
+        <v>78733</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2281,35 +2281,35 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4364</v>
+        <v>6464</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>690562</v>
+        <v>690356</v>
       </c>
       <c r="R16" t="n">
-        <v>7125622</v>
+        <v>7126311</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>14:06</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>14:06</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2378,10 +2378,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112129144</v>
+        <v>112126507</v>
       </c>
       <c r="B17" t="n">
-        <v>56414</v>
+        <v>90800</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2390,39 +2390,39 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100049</v>
+        <v>4364</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>690342</v>
+        <v>690563</v>
       </c>
       <c r="R17" t="n">
-        <v>7126286</v>
+        <v>7125706</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>15:23</t>
+          <t>13:38</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>15:23</t>
+          <t>13:38</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2491,10 +2491,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112126647</v>
+        <v>112129324</v>
       </c>
       <c r="B18" t="n">
-        <v>90300</v>
+        <v>90800</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2503,39 +2503,39 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4745</v>
+        <v>4364</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>690578</v>
+        <v>690444</v>
       </c>
       <c r="R18" t="n">
-        <v>7125678</v>
+        <v>7126178</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>15:32</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>15:32</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2604,10 +2604,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112125962</v>
+        <v>112129414</v>
       </c>
       <c r="B19" t="n">
-        <v>90710</v>
+        <v>90844</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2641,14 +2641,14 @@
       <c r="K19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>690606</v>
+        <v>690451</v>
       </c>
       <c r="R19" t="n">
-        <v>7125734</v>
+        <v>7126168</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2717,10 +2717,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112129344</v>
+        <v>112126418</v>
       </c>
       <c r="B20" t="n">
-        <v>90682</v>
+        <v>90844</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2733,35 +2733,35 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2059</v>
+        <v>5449</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>690448</v>
+        <v>690580</v>
       </c>
       <c r="R20" t="n">
-        <v>7126169</v>
+        <v>7125723</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>15:33</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>15:33</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2830,10 +2830,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112129437</v>
+        <v>112128981</v>
       </c>
       <c r="B21" t="n">
-        <v>90658</v>
+        <v>78699</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2846,21 +2846,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4361</v>
+        <v>6458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2871,10 +2871,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>690460</v>
+        <v>690354</v>
       </c>
       <c r="R21" t="n">
-        <v>7126186</v>
+        <v>7126318</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>15:36</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>15:36</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2943,10 +2943,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112129532</v>
+        <v>112126880</v>
       </c>
       <c r="B22" t="n">
-        <v>90666</v>
+        <v>90800</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2980,14 +2980,14 @@
       <c r="K22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>690474</v>
+        <v>690576</v>
       </c>
       <c r="R22" t="n">
-        <v>7126174</v>
+        <v>7125665</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3056,10 +3056,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112129414</v>
+        <v>112128707</v>
       </c>
       <c r="B23" t="n">
-        <v>90710</v>
+        <v>78699</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3072,21 +3072,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5449</v>
+        <v>6458</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>690451</v>
+        <v>690358</v>
       </c>
       <c r="R23" t="n">
-        <v>7126168</v>
+        <v>7126315</v>
       </c>
       <c r="S23" t="n">
         <v>1</v>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3169,10 +3169,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112129442</v>
+        <v>112125914</v>
       </c>
       <c r="B24" t="n">
-        <v>90710</v>
+        <v>90844</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3206,14 +3206,14 @@
       <c r="K24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>690472</v>
+        <v>690607</v>
       </c>
       <c r="R24" t="n">
-        <v>7126173</v>
+        <v>7125744</v>
       </c>
       <c r="S24" t="n">
         <v>1</v>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>15:36</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>15:36</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3282,10 +3282,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112128845</v>
+        <v>112129442</v>
       </c>
       <c r="B25" t="n">
-        <v>78578</v>
+        <v>90844</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3298,21 +3298,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6458</v>
+        <v>5449</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3323,10 +3323,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>690357</v>
+        <v>690472</v>
       </c>
       <c r="R25" t="n">
-        <v>7126307</v>
+        <v>7126173</v>
       </c>
       <c r="S25" t="n">
         <v>1</v>
@@ -3358,7 +3358,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>15:10</t>
+          <t>15:36</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>15:10</t>
+          <t>15:36</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3395,10 +3395,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112126910</v>
+        <v>112127162</v>
       </c>
       <c r="B26" t="n">
-        <v>90666</v>
+        <v>90800</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3436,10 +3436,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>690565</v>
+        <v>690562</v>
       </c>
       <c r="R26" t="n">
-        <v>7125648</v>
+        <v>7125622</v>
       </c>
       <c r="S26" t="n">
         <v>1</v>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>14:06</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>14:06</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3508,10 +3508,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112129324</v>
+        <v>112127443</v>
       </c>
       <c r="B27" t="n">
-        <v>90666</v>
+        <v>90843</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3520,39 +3520,39 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4364</v>
+        <v>5448</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>690444</v>
+        <v>690559</v>
       </c>
       <c r="R27" t="n">
-        <v>7126178</v>
+        <v>7125584</v>
       </c>
       <c r="S27" t="n">
         <v>1</v>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>15:32</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>15:32</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3621,10 +3621,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112126880</v>
+        <v>112129437</v>
       </c>
       <c r="B28" t="n">
-        <v>90666</v>
+        <v>90792</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3633,39 +3633,39 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>690576</v>
+        <v>690460</v>
       </c>
       <c r="R28" t="n">
-        <v>7125665</v>
+        <v>7126186</v>
       </c>
       <c r="S28" t="n">
         <v>1</v>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>15:36</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3707,7 +3707,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>15:36</t>
         </is>
       </c>
       <c r="AD28" t="b">

--- a/artfynd/A 2768-2023.xlsx
+++ b/artfynd/A 2768-2023.xlsx
@@ -1135,10 +1135,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112126647</v>
+        <v>112126260</v>
       </c>
       <c r="B6" t="n">
-        <v>90434</v>
+        <v>77636</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1151,21 +1151,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4745</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1176,10 +1176,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>690578</v>
+        <v>690607</v>
       </c>
       <c r="R6" t="n">
-        <v>7125678</v>
+        <v>7125724</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1248,10 +1248,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112126260</v>
+        <v>112125962</v>
       </c>
       <c r="B7" t="n">
-        <v>77636</v>
+        <v>90844</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1264,21 +1264,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>5449</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>690607</v>
+        <v>690606</v>
       </c>
       <c r="R7" t="n">
-        <v>7125724</v>
+        <v>7125734</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1361,10 +1361,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112125962</v>
+        <v>112129532</v>
       </c>
       <c r="B8" t="n">
-        <v>90844</v>
+        <v>90800</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1373,39 +1373,39 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5449</v>
+        <v>4364</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>690606</v>
+        <v>690474</v>
       </c>
       <c r="R8" t="n">
-        <v>7125734</v>
+        <v>7126174</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1474,10 +1474,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112129532</v>
+        <v>112129248</v>
       </c>
       <c r="B9" t="n">
-        <v>90800</v>
+        <v>90844</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1486,25 +1486,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4364</v>
+        <v>5449</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1515,10 +1515,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>690474</v>
+        <v>690368</v>
       </c>
       <c r="R9" t="n">
-        <v>7126174</v>
+        <v>7126265</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>15:28</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>15:28</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1587,10 +1587,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112129248</v>
+        <v>112126647</v>
       </c>
       <c r="B10" t="n">
-        <v>90844</v>
+        <v>90434</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1603,35 +1603,35 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5449</v>
+        <v>4745</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>690368</v>
+        <v>690578</v>
       </c>
       <c r="R10" t="n">
-        <v>7126265</v>
+        <v>7125678</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>15:28</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>15:28</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1926,10 +1926,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112129144</v>
+        <v>112125806</v>
       </c>
       <c r="B13" t="n">
-        <v>56446</v>
+        <v>77636</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1942,38 +1942,38 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>690342</v>
+        <v>690607</v>
       </c>
       <c r="R13" t="n">
-        <v>7126286</v>
+        <v>7125748</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>15:23</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>15:23</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2039,10 +2039,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112129344</v>
+        <v>112129144</v>
       </c>
       <c r="B14" t="n">
-        <v>90816</v>
+        <v>56446</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2055,21 +2055,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2059</v>
+        <v>100049</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>690448</v>
+        <v>690342</v>
       </c>
       <c r="R14" t="n">
-        <v>7126169</v>
+        <v>7126286</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>15:33</t>
+          <t>15:23</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>15:33</t>
+          <t>15:23</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2152,10 +2152,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112125806</v>
+        <v>112129344</v>
       </c>
       <c r="B15" t="n">
-        <v>77636</v>
+        <v>90816</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2168,38 +2168,38 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>2059</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>690607</v>
+        <v>690448</v>
       </c>
       <c r="R15" t="n">
-        <v>7125748</v>
+        <v>7126169</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>15:33</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>15:33</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -3395,10 +3395,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112127162</v>
+        <v>112129437</v>
       </c>
       <c r="B26" t="n">
-        <v>90800</v>
+        <v>90792</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3407,39 +3407,39 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>690562</v>
+        <v>690460</v>
       </c>
       <c r="R26" t="n">
-        <v>7125622</v>
+        <v>7126186</v>
       </c>
       <c r="S26" t="n">
         <v>1</v>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>14:06</t>
+          <t>15:36</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>14:06</t>
+          <t>15:36</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3508,10 +3508,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112127443</v>
+        <v>112127162</v>
       </c>
       <c r="B27" t="n">
-        <v>90843</v>
+        <v>90800</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3520,25 +3520,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5448</v>
+        <v>4364</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3549,10 +3549,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>690559</v>
+        <v>690562</v>
       </c>
       <c r="R27" t="n">
-        <v>7125584</v>
+        <v>7125622</v>
       </c>
       <c r="S27" t="n">
         <v>1</v>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>14:06</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>14:06</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3621,10 +3621,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112129437</v>
+        <v>112127443</v>
       </c>
       <c r="B28" t="n">
-        <v>90792</v>
+        <v>90843</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3637,35 +3637,35 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4361</v>
+        <v>5448</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>690460</v>
+        <v>690559</v>
       </c>
       <c r="R28" t="n">
-        <v>7126186</v>
+        <v>7125584</v>
       </c>
       <c r="S28" t="n">
         <v>1</v>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>15:36</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3707,7 +3707,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>15:36</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AD28" t="b">

--- a/artfynd/A 2768-2023.xlsx
+++ b/artfynd/A 2768-2023.xlsx
@@ -1022,10 +1022,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112126910</v>
+        <v>112126880</v>
       </c>
       <c r="B5" t="n">
-        <v>90800</v>
+        <v>90814</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>690565</v>
+        <v>690576</v>
       </c>
       <c r="R5" t="n">
-        <v>7125648</v>
+        <v>7125665</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1135,10 +1135,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112126260</v>
+        <v>112128845</v>
       </c>
       <c r="B6" t="n">
-        <v>77636</v>
+        <v>78713</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1151,35 +1151,35 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>690607</v>
+        <v>690357</v>
       </c>
       <c r="R6" t="n">
-        <v>7125724</v>
+        <v>7126307</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1248,10 +1248,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112125962</v>
+        <v>112128707</v>
       </c>
       <c r="B7" t="n">
-        <v>90844</v>
+        <v>78713</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1264,35 +1264,35 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5449</v>
+        <v>6458</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>690606</v>
+        <v>690358</v>
       </c>
       <c r="R7" t="n">
-        <v>7125734</v>
+        <v>7126315</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1361,10 +1361,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112129532</v>
+        <v>112129437</v>
       </c>
       <c r="B8" t="n">
-        <v>90800</v>
+        <v>90806</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1373,25 +1373,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1402,10 +1402,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>690474</v>
+        <v>690460</v>
       </c>
       <c r="R8" t="n">
-        <v>7126174</v>
+        <v>7126186</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>15:36</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>15:36</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1474,10 +1474,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112129248</v>
+        <v>112129324</v>
       </c>
       <c r="B9" t="n">
-        <v>90844</v>
+        <v>90814</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1486,25 +1486,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5449</v>
+        <v>4364</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1515,10 +1515,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>690368</v>
+        <v>690444</v>
       </c>
       <c r="R9" t="n">
-        <v>7126265</v>
+        <v>7126178</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>15:28</t>
+          <t>15:32</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>15:28</t>
+          <t>15:32</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1587,10 +1587,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112126647</v>
+        <v>112126507</v>
       </c>
       <c r="B10" t="n">
-        <v>90434</v>
+        <v>90814</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1599,25 +1599,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4745</v>
+        <v>4364</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1628,10 +1628,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>690578</v>
+        <v>690563</v>
       </c>
       <c r="R10" t="n">
-        <v>7125678</v>
+        <v>7125706</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>13:38</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>13:38</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1700,10 +1700,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112127054</v>
+        <v>112127162</v>
       </c>
       <c r="B11" t="n">
-        <v>90800</v>
+        <v>90814</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>690546</v>
+        <v>690562</v>
       </c>
       <c r="R11" t="n">
-        <v>7125644</v>
+        <v>7125622</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:06</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:06</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1813,10 +1813,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112128845</v>
+        <v>112129144</v>
       </c>
       <c r="B12" t="n">
-        <v>78699</v>
+        <v>56446</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1829,21 +1829,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6458</v>
+        <v>100049</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1854,10 +1854,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>690357</v>
+        <v>690342</v>
       </c>
       <c r="R12" t="n">
-        <v>7126307</v>
+        <v>7126286</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>15:10</t>
+          <t>15:23</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>15:10</t>
+          <t>15:23</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1926,10 +1926,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112125806</v>
+        <v>112125914</v>
       </c>
       <c r="B13" t="n">
-        <v>77636</v>
+        <v>90858</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1942,21 +1942,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>5449</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1970,10 +1970,10 @@
         <v>690607</v>
       </c>
       <c r="R13" t="n">
-        <v>7125748</v>
+        <v>7125744</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2039,10 +2039,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112129144</v>
+        <v>112126910</v>
       </c>
       <c r="B14" t="n">
-        <v>56446</v>
+        <v>90814</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2051,39 +2051,39 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100049</v>
+        <v>4364</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>690342</v>
+        <v>690565</v>
       </c>
       <c r="R14" t="n">
-        <v>7126286</v>
+        <v>7125648</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>15:23</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>15:23</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2152,10 +2152,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112129344</v>
+        <v>112126418</v>
       </c>
       <c r="B15" t="n">
-        <v>90816</v>
+        <v>90858</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2168,35 +2168,35 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2059</v>
+        <v>5449</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>690448</v>
+        <v>690580</v>
       </c>
       <c r="R15" t="n">
-        <v>7126169</v>
+        <v>7125723</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>15:33</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>15:33</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2265,10 +2265,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112128915</v>
+        <v>112125962</v>
       </c>
       <c r="B16" t="n">
-        <v>78733</v>
+        <v>90858</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2277,39 +2277,39 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6464</v>
+        <v>5449</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>690356</v>
+        <v>690606</v>
       </c>
       <c r="R16" t="n">
-        <v>7126311</v>
+        <v>7125734</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2378,10 +2378,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112126507</v>
+        <v>112128981</v>
       </c>
       <c r="B17" t="n">
-        <v>90800</v>
+        <v>78713</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2390,39 +2390,39 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4364</v>
+        <v>6458</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>690563</v>
+        <v>690354</v>
       </c>
       <c r="R17" t="n">
-        <v>7125706</v>
+        <v>7126318</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:38</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:38</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2491,10 +2491,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112129324</v>
+        <v>112126260</v>
       </c>
       <c r="B18" t="n">
-        <v>90800</v>
+        <v>77650</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2503,39 +2503,39 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>690444</v>
+        <v>690607</v>
       </c>
       <c r="R18" t="n">
-        <v>7126178</v>
+        <v>7125724</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>15:32</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>15:32</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2604,10 +2604,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112129414</v>
+        <v>112129442</v>
       </c>
       <c r="B19" t="n">
-        <v>90844</v>
+        <v>90858</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2645,10 +2645,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>690451</v>
+        <v>690472</v>
       </c>
       <c r="R19" t="n">
-        <v>7126168</v>
+        <v>7126173</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>15:36</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>15:36</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2717,10 +2717,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112126418</v>
+        <v>112127054</v>
       </c>
       <c r="B20" t="n">
-        <v>90844</v>
+        <v>90814</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2729,25 +2729,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5449</v>
+        <v>4364</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2758,10 +2758,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>690580</v>
+        <v>690546</v>
       </c>
       <c r="R20" t="n">
-        <v>7125723</v>
+        <v>7125644</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2830,10 +2830,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112128981</v>
+        <v>112128915</v>
       </c>
       <c r="B21" t="n">
-        <v>78699</v>
+        <v>78747</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2842,25 +2842,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6458</v>
+        <v>6464</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2871,10 +2871,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>690354</v>
+        <v>690356</v>
       </c>
       <c r="R21" t="n">
-        <v>7126318</v>
+        <v>7126311</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -2943,10 +2943,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112126880</v>
+        <v>112129248</v>
       </c>
       <c r="B22" t="n">
-        <v>90800</v>
+        <v>90858</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2955,39 +2955,39 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4364</v>
+        <v>5449</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>690576</v>
+        <v>690368</v>
       </c>
       <c r="R22" t="n">
-        <v>7125665</v>
+        <v>7126265</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>15:28</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>15:28</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3056,10 +3056,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112128707</v>
+        <v>112129344</v>
       </c>
       <c r="B23" t="n">
-        <v>78699</v>
+        <v>90830</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3072,21 +3072,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6458</v>
+        <v>2059</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>690358</v>
+        <v>690448</v>
       </c>
       <c r="R23" t="n">
-        <v>7126315</v>
+        <v>7126169</v>
       </c>
       <c r="S23" t="n">
         <v>1</v>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>15:33</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>15:33</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3169,10 +3169,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112125914</v>
+        <v>112126647</v>
       </c>
       <c r="B24" t="n">
-        <v>90844</v>
+        <v>90448</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3185,21 +3185,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5449</v>
+        <v>4745</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3210,10 +3210,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>690607</v>
+        <v>690578</v>
       </c>
       <c r="R24" t="n">
-        <v>7125744</v>
+        <v>7125678</v>
       </c>
       <c r="S24" t="n">
         <v>1</v>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3282,10 +3282,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112129442</v>
+        <v>112125806</v>
       </c>
       <c r="B25" t="n">
-        <v>90844</v>
+        <v>77650</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3298,38 +3298,38 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5449</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>690472</v>
+        <v>690607</v>
       </c>
       <c r="R25" t="n">
-        <v>7126173</v>
+        <v>7125748</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>15:36</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>15:36</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3395,10 +3395,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112129437</v>
+        <v>112129532</v>
       </c>
       <c r="B26" t="n">
-        <v>90792</v>
+        <v>90814</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3407,25 +3407,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3436,10 +3436,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>690460</v>
+        <v>690474</v>
       </c>
       <c r="R26" t="n">
-        <v>7126186</v>
+        <v>7126174</v>
       </c>
       <c r="S26" t="n">
         <v>1</v>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>15:36</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>15:36</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3508,10 +3508,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112127162</v>
+        <v>112129414</v>
       </c>
       <c r="B27" t="n">
-        <v>90800</v>
+        <v>90858</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3520,39 +3520,39 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4364</v>
+        <v>5449</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>690562</v>
+        <v>690451</v>
       </c>
       <c r="R27" t="n">
-        <v>7125622</v>
+        <v>7126168</v>
       </c>
       <c r="S27" t="n">
         <v>1</v>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>14:06</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>14:06</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3624,7 +3624,7 @@
         <v>112127443</v>
       </c>
       <c r="B28" t="n">
-        <v>90843</v>
+        <v>90857</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>

--- a/artfynd/A 2768-2023.xlsx
+++ b/artfynd/A 2768-2023.xlsx
@@ -1022,10 +1022,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112126880</v>
+        <v>112126418</v>
       </c>
       <c r="B5" t="n">
-        <v>90814</v>
+        <v>90858</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1034,25 +1034,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4364</v>
+        <v>5449</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1063,10 +1063,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>690576</v>
+        <v>690580</v>
       </c>
       <c r="R5" t="n">
-        <v>7125665</v>
+        <v>7125723</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1135,7 +1135,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112128845</v>
+        <v>112128707</v>
       </c>
       <c r="B6" t="n">
         <v>78713</v>
@@ -1176,10 +1176,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>690357</v>
+        <v>690358</v>
       </c>
       <c r="R6" t="n">
-        <v>7126307</v>
+        <v>7126315</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>15:10</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>15:10</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1248,10 +1248,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112128707</v>
+        <v>112129532</v>
       </c>
       <c r="B7" t="n">
-        <v>78713</v>
+        <v>90814</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1260,25 +1260,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>4364</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>690358</v>
+        <v>690474</v>
       </c>
       <c r="R7" t="n">
-        <v>7126315</v>
+        <v>7126174</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1361,10 +1361,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112129437</v>
+        <v>112129248</v>
       </c>
       <c r="B8" t="n">
-        <v>90806</v>
+        <v>90858</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1377,21 +1377,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4361</v>
+        <v>5449</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1402,10 +1402,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>690460</v>
+        <v>690368</v>
       </c>
       <c r="R8" t="n">
-        <v>7126186</v>
+        <v>7126265</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>15:36</t>
+          <t>15:28</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>15:36</t>
+          <t>15:28</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1474,10 +1474,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112129324</v>
+        <v>112127443</v>
       </c>
       <c r="B9" t="n">
-        <v>90814</v>
+        <v>90857</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1486,39 +1486,39 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4364</v>
+        <v>5448</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>690444</v>
+        <v>690559</v>
       </c>
       <c r="R9" t="n">
-        <v>7126178</v>
+        <v>7125584</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>15:32</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>15:32</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1587,10 +1587,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112126507</v>
+        <v>112126260</v>
       </c>
       <c r="B10" t="n">
-        <v>90814</v>
+        <v>77650</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1599,25 +1599,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1628,10 +1628,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>690563</v>
+        <v>690607</v>
       </c>
       <c r="R10" t="n">
-        <v>7125706</v>
+        <v>7125724</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:38</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:38</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1700,10 +1700,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112127162</v>
+        <v>112126647</v>
       </c>
       <c r="B11" t="n">
-        <v>90814</v>
+        <v>90448</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1712,25 +1712,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4364</v>
+        <v>4745</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>690562</v>
+        <v>690578</v>
       </c>
       <c r="R11" t="n">
-        <v>7125622</v>
+        <v>7125678</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>14:06</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>14:06</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1813,10 +1813,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112129144</v>
+        <v>112129442</v>
       </c>
       <c r="B12" t="n">
-        <v>56446</v>
+        <v>90858</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1829,21 +1829,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100049</v>
+        <v>5449</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1854,10 +1854,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>690342</v>
+        <v>690472</v>
       </c>
       <c r="R12" t="n">
-        <v>7126286</v>
+        <v>7126173</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>15:23</t>
+          <t>15:36</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>15:23</t>
+          <t>15:36</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1926,7 +1926,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112125914</v>
+        <v>112129414</v>
       </c>
       <c r="B13" t="n">
         <v>90858</v>
@@ -1963,14 +1963,14 @@
       <c r="K13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>690607</v>
+        <v>690451</v>
       </c>
       <c r="R13" t="n">
-        <v>7125744</v>
+        <v>7126168</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2039,7 +2039,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112126910</v>
+        <v>112126880</v>
       </c>
       <c r="B14" t="n">
         <v>90814</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>690565</v>
+        <v>690576</v>
       </c>
       <c r="R14" t="n">
-        <v>7125648</v>
+        <v>7125665</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2152,10 +2152,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112126418</v>
+        <v>112126507</v>
       </c>
       <c r="B15" t="n">
-        <v>90858</v>
+        <v>90814</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2164,25 +2164,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5449</v>
+        <v>4364</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>690580</v>
+        <v>690563</v>
       </c>
       <c r="R15" t="n">
-        <v>7125723</v>
+        <v>7125706</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>13:38</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>13:38</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2265,10 +2265,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112125962</v>
+        <v>112129344</v>
       </c>
       <c r="B16" t="n">
-        <v>90858</v>
+        <v>90830</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2281,35 +2281,35 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5449</v>
+        <v>2059</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>690606</v>
+        <v>690448</v>
       </c>
       <c r="R16" t="n">
-        <v>7125734</v>
+        <v>7126169</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>15:33</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>15:33</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2378,10 +2378,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112128981</v>
+        <v>112127054</v>
       </c>
       <c r="B17" t="n">
-        <v>78713</v>
+        <v>90814</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2390,39 +2390,39 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6458</v>
+        <v>4364</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>690354</v>
+        <v>690546</v>
       </c>
       <c r="R17" t="n">
-        <v>7126318</v>
+        <v>7125644</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2491,10 +2491,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112126260</v>
+        <v>112126910</v>
       </c>
       <c r="B18" t="n">
-        <v>77650</v>
+        <v>90814</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2503,25 +2503,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2532,10 +2532,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>690607</v>
+        <v>690565</v>
       </c>
       <c r="R18" t="n">
-        <v>7125724</v>
+        <v>7125648</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2604,10 +2604,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112129442</v>
+        <v>112128915</v>
       </c>
       <c r="B19" t="n">
-        <v>90858</v>
+        <v>78747</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2616,25 +2616,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5449</v>
+        <v>6464</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2645,10 +2645,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>690472</v>
+        <v>690356</v>
       </c>
       <c r="R19" t="n">
-        <v>7126173</v>
+        <v>7126311</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>15:36</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>15:36</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2717,10 +2717,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112127054</v>
+        <v>112128845</v>
       </c>
       <c r="B20" t="n">
-        <v>90814</v>
+        <v>78713</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2729,39 +2729,39 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4364</v>
+        <v>6458</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>690546</v>
+        <v>690357</v>
       </c>
       <c r="R20" t="n">
-        <v>7125644</v>
+        <v>7126307</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2830,10 +2830,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112128915</v>
+        <v>112128981</v>
       </c>
       <c r="B21" t="n">
-        <v>78747</v>
+        <v>78713</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2842,25 +2842,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2871,10 +2871,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>690356</v>
+        <v>690354</v>
       </c>
       <c r="R21" t="n">
-        <v>7126311</v>
+        <v>7126318</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -2943,10 +2943,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112129248</v>
+        <v>112129144</v>
       </c>
       <c r="B22" t="n">
-        <v>90858</v>
+        <v>56446</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2959,21 +2959,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5449</v>
+        <v>100049</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2984,10 +2984,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>690368</v>
+        <v>690342</v>
       </c>
       <c r="R22" t="n">
-        <v>7126265</v>
+        <v>7126286</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>15:28</t>
+          <t>15:23</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>15:28</t>
+          <t>15:23</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3056,10 +3056,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112129344</v>
+        <v>112129324</v>
       </c>
       <c r="B23" t="n">
-        <v>90830</v>
+        <v>90814</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3068,25 +3068,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>690448</v>
+        <v>690444</v>
       </c>
       <c r="R23" t="n">
-        <v>7126169</v>
+        <v>7126178</v>
       </c>
       <c r="S23" t="n">
         <v>1</v>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>15:33</t>
+          <t>15:32</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>15:33</t>
+          <t>15:32</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3169,10 +3169,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112126647</v>
+        <v>112125914</v>
       </c>
       <c r="B24" t="n">
-        <v>90448</v>
+        <v>90858</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3185,21 +3185,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4745</v>
+        <v>5449</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3210,10 +3210,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>690578</v>
+        <v>690607</v>
       </c>
       <c r="R24" t="n">
-        <v>7125678</v>
+        <v>7125744</v>
       </c>
       <c r="S24" t="n">
         <v>1</v>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3282,10 +3282,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112125806</v>
+        <v>112125962</v>
       </c>
       <c r="B25" t="n">
-        <v>77650</v>
+        <v>90858</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3298,21 +3298,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>5449</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3323,13 +3323,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>690607</v>
+        <v>690606</v>
       </c>
       <c r="R25" t="n">
-        <v>7125748</v>
+        <v>7125734</v>
       </c>
       <c r="S25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3395,7 +3395,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112129532</v>
+        <v>112127162</v>
       </c>
       <c r="B26" t="n">
         <v>90814</v>
@@ -3432,14 +3432,14 @@
       <c r="K26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>690474</v>
+        <v>690562</v>
       </c>
       <c r="R26" t="n">
-        <v>7126174</v>
+        <v>7125622</v>
       </c>
       <c r="S26" t="n">
         <v>1</v>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>14:06</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>14:06</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3508,10 +3508,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112129414</v>
+        <v>112125806</v>
       </c>
       <c r="B27" t="n">
-        <v>90858</v>
+        <v>77650</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3524,38 +3524,38 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5449</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>690451</v>
+        <v>690607</v>
       </c>
       <c r="R27" t="n">
-        <v>7126168</v>
+        <v>7125748</v>
       </c>
       <c r="S27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3621,10 +3621,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112127443</v>
+        <v>112129437</v>
       </c>
       <c r="B28" t="n">
-        <v>90857</v>
+        <v>90806</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3637,35 +3637,35 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5448</v>
+        <v>4361</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>690559</v>
+        <v>690460</v>
       </c>
       <c r="R28" t="n">
-        <v>7125584</v>
+        <v>7126186</v>
       </c>
       <c r="S28" t="n">
         <v>1</v>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>15:36</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3707,7 +3707,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>15:36</t>
         </is>
       </c>
       <c r="AD28" t="b">

--- a/artfynd/A 2768-2023.xlsx
+++ b/artfynd/A 2768-2023.xlsx
@@ -2830,10 +2830,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112128981</v>
+        <v>112129144</v>
       </c>
       <c r="B21" t="n">
-        <v>78713</v>
+        <v>56446</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2846,21 +2846,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6458</v>
+        <v>100049</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2871,10 +2871,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>690354</v>
+        <v>690342</v>
       </c>
       <c r="R21" t="n">
-        <v>7126318</v>
+        <v>7126286</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>15:23</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>15:23</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2943,10 +2943,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112129144</v>
+        <v>112128981</v>
       </c>
       <c r="B22" t="n">
-        <v>56446</v>
+        <v>78713</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2959,21 +2959,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100049</v>
+        <v>6458</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2984,10 +2984,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>690342</v>
+        <v>690354</v>
       </c>
       <c r="R22" t="n">
-        <v>7126286</v>
+        <v>7126318</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>15:23</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>15:23</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AD22" t="b">

--- a/artfynd/A 2768-2023.xlsx
+++ b/artfynd/A 2768-2023.xlsx
@@ -1022,10 +1022,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112126418</v>
+        <v>112127054</v>
       </c>
       <c r="B5" t="n">
-        <v>90858</v>
+        <v>90814</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1034,25 +1034,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5449</v>
+        <v>4364</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1063,10 +1063,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>690580</v>
+        <v>690546</v>
       </c>
       <c r="R5" t="n">
-        <v>7125723</v>
+        <v>7125644</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1135,10 +1135,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112128707</v>
+        <v>112126910</v>
       </c>
       <c r="B6" t="n">
-        <v>78713</v>
+        <v>90814</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1147,39 +1147,39 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>4364</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>690358</v>
+        <v>690565</v>
       </c>
       <c r="R6" t="n">
-        <v>7126315</v>
+        <v>7125648</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1248,10 +1248,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112129532</v>
+        <v>112129344</v>
       </c>
       <c r="B7" t="n">
-        <v>90814</v>
+        <v>90830</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1260,25 +1260,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>690474</v>
+        <v>690448</v>
       </c>
       <c r="R7" t="n">
-        <v>7126174</v>
+        <v>7126169</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>15:33</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>15:41</t>
+          <t>15:33</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1361,10 +1361,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112129248</v>
+        <v>112128845</v>
       </c>
       <c r="B8" t="n">
-        <v>90858</v>
+        <v>78713</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1377,21 +1377,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5449</v>
+        <v>6458</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1402,10 +1402,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>690368</v>
+        <v>690357</v>
       </c>
       <c r="R8" t="n">
-        <v>7126265</v>
+        <v>7126307</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>15:28</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>15:28</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1474,10 +1474,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112127443</v>
+        <v>112126507</v>
       </c>
       <c r="B9" t="n">
-        <v>90857</v>
+        <v>90814</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1486,25 +1486,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5448</v>
+        <v>4364</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1515,10 +1515,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>690559</v>
+        <v>690563</v>
       </c>
       <c r="R9" t="n">
-        <v>7125584</v>
+        <v>7125706</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>13:38</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>13:38</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1587,10 +1587,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112126260</v>
+        <v>112127162</v>
       </c>
       <c r="B10" t="n">
-        <v>77650</v>
+        <v>90814</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1599,25 +1599,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1628,10 +1628,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>690607</v>
+        <v>690562</v>
       </c>
       <c r="R10" t="n">
-        <v>7125724</v>
+        <v>7125622</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>14:06</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>14:06</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1813,10 +1813,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112129442</v>
+        <v>112128915</v>
       </c>
       <c r="B12" t="n">
-        <v>90858</v>
+        <v>78747</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1825,25 +1825,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5449</v>
+        <v>6464</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1854,10 +1854,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>690472</v>
+        <v>690356</v>
       </c>
       <c r="R12" t="n">
-        <v>7126173</v>
+        <v>7126311</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>15:36</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>15:36</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1926,7 +1926,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112129414</v>
+        <v>112125914</v>
       </c>
       <c r="B13" t="n">
         <v>90858</v>
@@ -1963,14 +1963,14 @@
       <c r="K13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>690451</v>
+        <v>690607</v>
       </c>
       <c r="R13" t="n">
-        <v>7126168</v>
+        <v>7125744</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2039,10 +2039,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112126880</v>
+        <v>112125806</v>
       </c>
       <c r="B14" t="n">
-        <v>90814</v>
+        <v>77650</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2051,25 +2051,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>690576</v>
+        <v>690607</v>
       </c>
       <c r="R14" t="n">
-        <v>7125665</v>
+        <v>7125748</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2152,10 +2152,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112126507</v>
+        <v>112128707</v>
       </c>
       <c r="B15" t="n">
-        <v>90814</v>
+        <v>78713</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2164,39 +2164,39 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4364</v>
+        <v>6458</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>690563</v>
+        <v>690358</v>
       </c>
       <c r="R15" t="n">
-        <v>7125706</v>
+        <v>7126315</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>13:38</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>13:38</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2265,10 +2265,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112129344</v>
+        <v>112128981</v>
       </c>
       <c r="B16" t="n">
-        <v>90830</v>
+        <v>78713</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2281,21 +2281,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2059</v>
+        <v>6458</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>690448</v>
+        <v>690354</v>
       </c>
       <c r="R16" t="n">
-        <v>7126169</v>
+        <v>7126318</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>15:33</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>15:33</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2378,10 +2378,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112127054</v>
+        <v>112129414</v>
       </c>
       <c r="B17" t="n">
-        <v>90814</v>
+        <v>90858</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2390,39 +2390,39 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4364</v>
+        <v>5449</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>690546</v>
+        <v>690451</v>
       </c>
       <c r="R17" t="n">
-        <v>7125644</v>
+        <v>7126168</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2491,10 +2491,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112126910</v>
+        <v>112125962</v>
       </c>
       <c r="B18" t="n">
-        <v>90814</v>
+        <v>90858</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2503,25 +2503,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4364</v>
+        <v>5449</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2532,10 +2532,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>690565</v>
+        <v>690606</v>
       </c>
       <c r="R18" t="n">
-        <v>7125648</v>
+        <v>7125734</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2604,10 +2604,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112128915</v>
+        <v>112129437</v>
       </c>
       <c r="B19" t="n">
-        <v>78747</v>
+        <v>90806</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2616,25 +2616,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6464</v>
+        <v>4361</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2645,10 +2645,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>690356</v>
+        <v>690460</v>
       </c>
       <c r="R19" t="n">
-        <v>7126311</v>
+        <v>7126186</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>15:36</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>15:36</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2717,10 +2717,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112128845</v>
+        <v>112127443</v>
       </c>
       <c r="B20" t="n">
-        <v>78713</v>
+        <v>90857</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2733,35 +2733,35 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6458</v>
+        <v>5448</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>690357</v>
+        <v>690559</v>
       </c>
       <c r="R20" t="n">
-        <v>7126307</v>
+        <v>7125584</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>15:10</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>15:10</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2830,10 +2830,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112129144</v>
+        <v>112129442</v>
       </c>
       <c r="B21" t="n">
-        <v>56446</v>
+        <v>90858</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2846,21 +2846,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100049</v>
+        <v>5449</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2871,10 +2871,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>690342</v>
+        <v>690472</v>
       </c>
       <c r="R21" t="n">
-        <v>7126286</v>
+        <v>7126173</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>15:23</t>
+          <t>15:36</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>15:23</t>
+          <t>15:36</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2943,10 +2943,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112128981</v>
+        <v>112126260</v>
       </c>
       <c r="B22" t="n">
-        <v>78713</v>
+        <v>77650</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2959,35 +2959,35 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>690354</v>
+        <v>690607</v>
       </c>
       <c r="R22" t="n">
-        <v>7126318</v>
+        <v>7125724</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3056,10 +3056,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112129324</v>
+        <v>112126418</v>
       </c>
       <c r="B23" t="n">
-        <v>90814</v>
+        <v>90858</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3068,39 +3068,39 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4364</v>
+        <v>5449</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>690444</v>
+        <v>690580</v>
       </c>
       <c r="R23" t="n">
-        <v>7126178</v>
+        <v>7125723</v>
       </c>
       <c r="S23" t="n">
         <v>1</v>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>15:32</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>15:32</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3169,7 +3169,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112125914</v>
+        <v>112129248</v>
       </c>
       <c r="B24" t="n">
         <v>90858</v>
@@ -3206,14 +3206,14 @@
       <c r="K24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>690607</v>
+        <v>690368</v>
       </c>
       <c r="R24" t="n">
-        <v>7125744</v>
+        <v>7126265</v>
       </c>
       <c r="S24" t="n">
         <v>1</v>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>15:28</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>15:28</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3282,10 +3282,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112125962</v>
+        <v>112126880</v>
       </c>
       <c r="B25" t="n">
-        <v>90858</v>
+        <v>90814</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3294,25 +3294,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5449</v>
+        <v>4364</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3323,10 +3323,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>690606</v>
+        <v>690576</v>
       </c>
       <c r="R25" t="n">
-        <v>7125734</v>
+        <v>7125665</v>
       </c>
       <c r="S25" t="n">
         <v>1</v>
@@ -3358,7 +3358,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3395,7 +3395,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112127162</v>
+        <v>112129324</v>
       </c>
       <c r="B26" t="n">
         <v>90814</v>
@@ -3432,14 +3432,14 @@
       <c r="K26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>690562</v>
+        <v>690444</v>
       </c>
       <c r="R26" t="n">
-        <v>7125622</v>
+        <v>7126178</v>
       </c>
       <c r="S26" t="n">
         <v>1</v>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>14:06</t>
+          <t>15:32</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>14:06</t>
+          <t>15:32</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3508,10 +3508,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112125806</v>
+        <v>112129144</v>
       </c>
       <c r="B27" t="n">
-        <v>77650</v>
+        <v>56446</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3524,38 +3524,38 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>690607</v>
+        <v>690342</v>
       </c>
       <c r="R27" t="n">
-        <v>7125748</v>
+        <v>7126286</v>
       </c>
       <c r="S27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>15:23</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>15:23</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3621,10 +3621,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112129437</v>
+        <v>112129532</v>
       </c>
       <c r="B28" t="n">
-        <v>90806</v>
+        <v>90814</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3633,25 +3633,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3662,10 +3662,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>690460</v>
+        <v>690474</v>
       </c>
       <c r="R28" t="n">
-        <v>7126186</v>
+        <v>7126174</v>
       </c>
       <c r="S28" t="n">
         <v>1</v>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>15:36</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3707,7 +3707,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>15:36</t>
+          <t>15:41</t>
         </is>
       </c>
       <c r="AD28" t="b">
